--- a/ocms/src/test/resources/DownloadedFiles/Fax Auto ACK Configuration (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Fax Auto ACK Configuration (2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t xml:space="preserve">Fax Line</t>
   </si>
@@ -40,82 +40,94 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
+    <t xml:space="preserve">56782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fax Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MadMan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QATETHERFI\Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/08/2021 13:11:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/08/2021 13:10:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DefaultTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gooogle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qatetherfi\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/08/2021 00:34:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/08/2021 17:49:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NameData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/08/2021 13:09:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/08/2021 17:49:28</t>
+  </si>
+  <si>
     <t xml:space="preserve">4215</t>
   </si>
   <si>
-    <t xml:space="preserve">WL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Database</t>
   </si>
   <si>
-    <t xml:space="preserve">Enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MadMan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qatetherfi\administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/05/2020 14:56:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/08/2021 13:10:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fax Member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/08/2021 13:11:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gooogle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/08/2021 13:10:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NameData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/08/2021 13:09:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/06/2020 14:03:37</t>
+    <t xml:space="preserve">04/08/2021 17:48:54</t>
   </si>
 </sst>
 </file>
@@ -183,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -193,7 +205,7 @@
   <cols>
     <col min="1" max="1" customWidth="1" width="8.714285714285714" bestFit="1"/>
     <col min="2" max="2" customWidth="1" width="11.714285714285714" bestFit="1"/>
-    <col min="3" max="3" customWidth="1" width="10.714285714285714" bestFit="1"/>
+    <col min="3" max="3" customWidth="1" width="11.714285714285714" bestFit="1"/>
     <col min="4" max="4" customWidth="1" width="7.714285714285714" bestFit="1"/>
     <col min="5" max="5" customWidth="1" width="8.714285714285714" bestFit="1"/>
     <col min="6" max="6" customWidth="1" width="24.714285714285715" bestFit="1"/>
@@ -251,10 +263,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -263,7 +275,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>17</v>
@@ -274,42 +286,42 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>26</v>
@@ -329,10 +341,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>30</v>
@@ -340,25 +352,48 @@
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
